--- a/개인 작업 폴더/윤도균/[레벨]_스테이지디자인_챕터11_v0.01.xlsx
+++ b/개인 작업 폴더/윤도균/[레벨]_스테이지디자인_챕터11_v0.01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\Yaho\개인 작업 폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E2A8B-064D-4E1C-904C-122C6A26C7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C56D1E-1A1C-46ED-B242-248D2A91ED0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="705" windowWidth="28650" windowHeight="14670" activeTab="5" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
+    <workbookView xWindow="15" yWindow="705" windowWidth="28650" windowHeight="14670" xr2:uid="{E0098422-7DBB-4140-A729-191D5C1CCF45}"/>
   </bookViews>
   <sheets>
     <sheet name="히스토리" sheetId="3" r:id="rId1"/>
@@ -1255,6 +1255,42 @@
     <xf numFmtId="0" fontId="24" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,42 +1355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0059DA-035E-47AE-945D-637AFEBF9D7A}">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5195,132 +5195,6 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
     <mergeCell ref="I149:L149"/>
     <mergeCell ref="I150:L150"/>
     <mergeCell ref="I1:L1"/>
@@ -5345,6 +5219,132 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="I143:L143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5514,191 +5514,191 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="13"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="Q2" s="112" t="s">
+      <c r="Q2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
       <c r="V2" s="13"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="23"/>
-      <c r="AA2" s="110" t="s">
+      <c r="AA2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="38"/>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="112" t="s">
+      <c r="AL2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
       <c r="AQ2" s="13"/>
       <c r="AS2" s="62"/>
-      <c r="AU2" s="113" t="s">
+      <c r="AU2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="91"/>
       <c r="BC2" s="13"/>
       <c r="BE2" s="27"/>
       <c r="BF2" s="27"/>
-      <c r="BH2" s="108" t="s">
+      <c r="BH2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
       <c r="BM2" s="13"/>
       <c r="BO2" s="25"/>
       <c r="BP2" s="25"/>
-      <c r="BR2" s="110" t="s">
+      <c r="BR2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="BS2" s="110"/>
-      <c r="BT2" s="110"/>
-      <c r="BU2" s="110"/>
-      <c r="BV2" s="110"/>
-      <c r="BW2" s="110"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
       <c r="BY2" s="13"/>
-      <c r="CD2" s="111" t="s">
+      <c r="CD2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="111"/>
-      <c r="CF2" s="111"/>
-      <c r="CG2" s="111"/>
-      <c r="CH2" s="111"/>
-      <c r="CI2" s="111"/>
-      <c r="CJ2" s="111"/>
+      <c r="CE2" s="89"/>
+      <c r="CF2" s="89"/>
+      <c r="CG2" s="89"/>
+      <c r="CH2" s="89"/>
+      <c r="CI2" s="89"/>
+      <c r="CJ2" s="89"/>
       <c r="CK2" s="13"/>
-      <c r="CP2" s="108" t="s">
+      <c r="CP2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="CQ2" s="108"/>
-      <c r="CR2" s="108"/>
-      <c r="CS2" s="108"/>
-      <c r="CT2" s="108"/>
+      <c r="CQ2" s="86"/>
+      <c r="CR2" s="86"/>
+      <c r="CS2" s="86"/>
+      <c r="CT2" s="86"/>
     </row>
     <row r="3" spans="1:101" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="14"/>
       <c r="M3" s="10"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
       <c r="V3" s="14"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="24"/>
       <c r="AI3" s="29"/>
       <c r="AJ3" s="29"/>
       <c r="AK3" s="24"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
       <c r="AQ3" s="14"/>
       <c r="AS3" s="31"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="91"/>
       <c r="BC3" s="14"/>
       <c r="BD3" s="10"/>
       <c r="BE3" s="28"/>
       <c r="BF3" s="28"/>
       <c r="BG3" s="10"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
       <c r="BM3" s="14"/>
       <c r="BN3" s="9"/>
       <c r="BO3" s="26"/>
       <c r="BP3" s="26"/>
-      <c r="BR3" s="110"/>
-      <c r="BS3" s="110"/>
-      <c r="BT3" s="110"/>
-      <c r="BU3" s="110"/>
-      <c r="BV3" s="110"/>
-      <c r="BW3" s="110"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
       <c r="BY3" s="13"/>
       <c r="BZ3" s="10"/>
       <c r="CA3" s="10"/>
       <c r="CB3" s="10"/>
       <c r="CC3" s="10"/>
-      <c r="CD3" s="111"/>
-      <c r="CE3" s="111"/>
-      <c r="CF3" s="111"/>
-      <c r="CG3" s="111"/>
-      <c r="CH3" s="111"/>
-      <c r="CI3" s="111"/>
-      <c r="CJ3" s="111"/>
+      <c r="CD3" s="89"/>
+      <c r="CE3" s="89"/>
+      <c r="CF3" s="89"/>
+      <c r="CG3" s="89"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="89"/>
+      <c r="CJ3" s="89"/>
       <c r="CK3" s="13"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CS3" s="108"/>
-      <c r="CT3" s="108"/>
+      <c r="CP3" s="86"/>
+      <c r="CQ3" s="86"/>
+      <c r="CR3" s="86"/>
+      <c r="CS3" s="86"/>
+      <c r="CT3" s="86"/>
     </row>
     <row r="4" spans="1:101" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -5762,13 +5762,13 @@
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="14"/>
@@ -5776,23 +5776,23 @@
       <c r="N5" s="63"/>
       <c r="O5" s="63"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="114" t="s">
+      <c r="Q5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="116"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="94"/>
       <c r="V5" s="14"/>
       <c r="X5" s="64"/>
       <c r="Y5" s="64"/>
-      <c r="AA5" s="114" t="s">
+      <c r="AA5" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="116"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="94"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="24"/>
@@ -5834,11 +5834,11 @@
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="14"/>
@@ -5846,19 +5846,19 @@
       <c r="N6" s="63"/>
       <c r="O6" s="63"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="119"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="97"/>
       <c r="V6" s="14"/>
       <c r="X6" s="64"/>
       <c r="Y6" s="64"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="119"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="97"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="24"/>
@@ -6030,38 +6030,38 @@
     <row r="9" spans="1:101" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="92" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="94"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
@@ -6109,34 +6109,34 @@
     <row r="10" spans="1:101" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="97"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
@@ -6184,44 +6184,44 @@
     <row r="11" spans="1:101" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="98" t="s">
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101">
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="113">
         <v>99</v>
       </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="98" t="s">
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="101">
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="113">
         <v>60</v>
       </c>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="103"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="115"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
@@ -6486,96 +6486,96 @@
       <c r="CW14" s="30"/>
     </row>
     <row r="15" spans="1:101" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
     </row>
     <row r="16" spans="1:101" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
     </row>
     <row r="17" spans="3:101" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
     </row>
     <row r="19" spans="3:101" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="71"/>
@@ -12638,161 +12638,170 @@
       <c r="CW78" s="71"/>
     </row>
     <row r="82" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="107" t="s">
+      <c r="C82" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-      <c r="N82" s="107"/>
-      <c r="O82" s="107"/>
-      <c r="P82" s="107"/>
-      <c r="Q82" s="107"/>
-      <c r="R82" s="107"/>
-      <c r="S82" s="107"/>
-      <c r="T82" s="107"/>
-      <c r="U82" s="107"/>
-      <c r="V82" s="107"/>
-      <c r="W82" s="107"/>
-      <c r="X82" s="107"/>
-      <c r="Y82" s="107"/>
-      <c r="Z82" s="107"/>
-      <c r="AA82" s="107"/>
-      <c r="AB82" s="107"/>
-      <c r="AC82" s="107"/>
-      <c r="AD82" s="107"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="119"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="119"/>
+      <c r="M82" s="119"/>
+      <c r="N82" s="119"/>
+      <c r="O82" s="119"/>
+      <c r="P82" s="119"/>
+      <c r="Q82" s="119"/>
+      <c r="R82" s="119"/>
+      <c r="S82" s="119"/>
+      <c r="T82" s="119"/>
+      <c r="U82" s="119"/>
+      <c r="V82" s="119"/>
+      <c r="W82" s="119"/>
+      <c r="X82" s="119"/>
+      <c r="Y82" s="119"/>
+      <c r="Z82" s="119"/>
+      <c r="AA82" s="119"/>
+      <c r="AB82" s="119"/>
+      <c r="AC82" s="119"/>
+      <c r="AD82" s="119"/>
     </row>
     <row r="83" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="107"/>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
-      <c r="Q83" s="107"/>
-      <c r="R83" s="107"/>
-      <c r="S83" s="107"/>
-      <c r="T83" s="107"/>
-      <c r="U83" s="107"/>
-      <c r="V83" s="107"/>
-      <c r="W83" s="107"/>
-      <c r="X83" s="107"/>
-      <c r="Y83" s="107"/>
-      <c r="Z83" s="107"/>
-      <c r="AA83" s="107"/>
-      <c r="AB83" s="107"/>
-      <c r="AC83" s="107"/>
-      <c r="AD83" s="107"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="119"/>
+      <c r="G83" s="119"/>
+      <c r="H83" s="119"/>
+      <c r="I83" s="119"/>
+      <c r="J83" s="119"/>
+      <c r="K83" s="119"/>
+      <c r="L83" s="119"/>
+      <c r="M83" s="119"/>
+      <c r="N83" s="119"/>
+      <c r="O83" s="119"/>
+      <c r="P83" s="119"/>
+      <c r="Q83" s="119"/>
+      <c r="R83" s="119"/>
+      <c r="S83" s="119"/>
+      <c r="T83" s="119"/>
+      <c r="U83" s="119"/>
+      <c r="V83" s="119"/>
+      <c r="W83" s="119"/>
+      <c r="X83" s="119"/>
+      <c r="Y83" s="119"/>
+      <c r="Z83" s="119"/>
+      <c r="AA83" s="119"/>
+      <c r="AB83" s="119"/>
+      <c r="AC83" s="119"/>
+      <c r="AD83" s="119"/>
     </row>
     <row r="84" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="107"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="107"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
-      <c r="O84" s="107"/>
-      <c r="P84" s="107"/>
-      <c r="Q84" s="107"/>
-      <c r="R84" s="107"/>
-      <c r="S84" s="107"/>
-      <c r="T84" s="107"/>
-      <c r="U84" s="107"/>
-      <c r="V84" s="107"/>
-      <c r="W84" s="107"/>
-      <c r="X84" s="107"/>
-      <c r="Y84" s="107"/>
-      <c r="Z84" s="107"/>
-      <c r="AA84" s="107"/>
-      <c r="AB84" s="107"/>
-      <c r="AC84" s="107"/>
-      <c r="AD84" s="107"/>
+      <c r="C84" s="119"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="119"/>
+      <c r="I84" s="119"/>
+      <c r="J84" s="119"/>
+      <c r="K84" s="119"/>
+      <c r="L84" s="119"/>
+      <c r="M84" s="119"/>
+      <c r="N84" s="119"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="119"/>
+      <c r="Q84" s="119"/>
+      <c r="R84" s="119"/>
+      <c r="S84" s="119"/>
+      <c r="T84" s="119"/>
+      <c r="U84" s="119"/>
+      <c r="V84" s="119"/>
+      <c r="W84" s="119"/>
+      <c r="X84" s="119"/>
+      <c r="Y84" s="119"/>
+      <c r="Z84" s="119"/>
+      <c r="AA84" s="119"/>
+      <c r="AB84" s="119"/>
+      <c r="AC84" s="119"/>
+      <c r="AD84" s="119"/>
     </row>
     <row r="87" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="87"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="87"/>
-      <c r="K87" s="87"/>
-      <c r="L87" s="87"/>
-      <c r="M87" s="87"/>
-      <c r="N87" s="87"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
-      <c r="R87" s="87"/>
-      <c r="S87" s="87"/>
-      <c r="T87" s="87"/>
-      <c r="U87" s="87"/>
-      <c r="V87" s="87"/>
-      <c r="W87" s="87"/>
-      <c r="X87" s="87"/>
-      <c r="Y87" s="87"/>
-      <c r="Z87" s="87"/>
-      <c r="AA87" s="87"/>
-      <c r="AB87" s="87"/>
-      <c r="AC87" s="87"/>
-      <c r="AD87" s="88"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="99"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="99"/>
+      <c r="M87" s="99"/>
+      <c r="N87" s="99"/>
+      <c r="O87" s="99"/>
+      <c r="P87" s="99"/>
+      <c r="Q87" s="99"/>
+      <c r="R87" s="99"/>
+      <c r="S87" s="99"/>
+      <c r="T87" s="99"/>
+      <c r="U87" s="99"/>
+      <c r="V87" s="99"/>
+      <c r="W87" s="99"/>
+      <c r="X87" s="99"/>
+      <c r="Y87" s="99"/>
+      <c r="Z87" s="99"/>
+      <c r="AA87" s="99"/>
+      <c r="AB87" s="99"/>
+      <c r="AC87" s="99"/>
+      <c r="AD87" s="100"/>
     </row>
     <row r="88" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="89"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="90"/>
-      <c r="U88" s="90"/>
-      <c r="V88" s="90"/>
-      <c r="W88" s="90"/>
-      <c r="X88" s="90"/>
-      <c r="Y88" s="90"/>
-      <c r="Z88" s="90"/>
-      <c r="AA88" s="90"/>
-      <c r="AB88" s="90"/>
-      <c r="AC88" s="90"/>
-      <c r="AD88" s="91"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
+      <c r="J88" s="102"/>
+      <c r="K88" s="102"/>
+      <c r="L88" s="102"/>
+      <c r="M88" s="102"/>
+      <c r="N88" s="102"/>
+      <c r="O88" s="102"/>
+      <c r="P88" s="102"/>
+      <c r="Q88" s="102"/>
+      <c r="R88" s="102"/>
+      <c r="S88" s="102"/>
+      <c r="T88" s="102"/>
+      <c r="U88" s="102"/>
+      <c r="V88" s="102"/>
+      <c r="W88" s="102"/>
+      <c r="X88" s="102"/>
+      <c r="Y88" s="102"/>
+      <c r="Z88" s="102"/>
+      <c r="AA88" s="102"/>
+      <c r="AB88" s="102"/>
+      <c r="AC88" s="102"/>
+      <c r="AD88" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C87:AD88"/>
+    <mergeCell ref="O9:AD10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="C15:AD17"/>
+    <mergeCell ref="C82:AD84"/>
     <mergeCell ref="CP2:CT3"/>
     <mergeCell ref="C9:N10"/>
     <mergeCell ref="BH2:BL3"/>
@@ -12806,15 +12815,6 @@
     <mergeCell ref="E5:I6"/>
     <mergeCell ref="AL2:AP3"/>
     <mergeCell ref="AA5:AE6"/>
-    <mergeCell ref="C87:AD88"/>
-    <mergeCell ref="O9:AD10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="C15:AD17"/>
-    <mergeCell ref="C82:AD84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12907,191 +12907,191 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="13"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="Q2" s="112" t="s">
+      <c r="Q2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
       <c r="V2" s="13"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="23"/>
-      <c r="AA2" s="110" t="s">
+      <c r="AA2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="38"/>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="112" t="s">
+      <c r="AL2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
       <c r="AQ2" s="13"/>
       <c r="AS2" s="66"/>
-      <c r="AU2" s="113" t="s">
+      <c r="AU2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="91"/>
       <c r="BC2" s="13"/>
       <c r="BE2" s="27"/>
       <c r="BF2" s="27"/>
-      <c r="BH2" s="108" t="s">
+      <c r="BH2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
       <c r="BM2" s="13"/>
       <c r="BO2" s="25"/>
       <c r="BP2" s="25"/>
-      <c r="BR2" s="110" t="s">
+      <c r="BR2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="BS2" s="110"/>
-      <c r="BT2" s="110"/>
-      <c r="BU2" s="110"/>
-      <c r="BV2" s="110"/>
-      <c r="BW2" s="110"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
       <c r="BY2" s="13"/>
-      <c r="CD2" s="111" t="s">
+      <c r="CD2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="111"/>
-      <c r="CF2" s="111"/>
-      <c r="CG2" s="111"/>
-      <c r="CH2" s="111"/>
-      <c r="CI2" s="111"/>
-      <c r="CJ2" s="111"/>
+      <c r="CE2" s="89"/>
+      <c r="CF2" s="89"/>
+      <c r="CG2" s="89"/>
+      <c r="CH2" s="89"/>
+      <c r="CI2" s="89"/>
+      <c r="CJ2" s="89"/>
       <c r="CK2" s="13"/>
-      <c r="CP2" s="108" t="s">
+      <c r="CP2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="CQ2" s="108"/>
-      <c r="CR2" s="108"/>
-      <c r="CS2" s="108"/>
-      <c r="CT2" s="108"/>
+      <c r="CQ2" s="86"/>
+      <c r="CR2" s="86"/>
+      <c r="CS2" s="86"/>
+      <c r="CT2" s="86"/>
     </row>
     <row r="3" spans="1:105" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="14"/>
       <c r="M3" s="10"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
       <c r="V3" s="14"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="24"/>
       <c r="AI3" s="29"/>
       <c r="AJ3" s="29"/>
       <c r="AK3" s="24"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
       <c r="AQ3" s="14"/>
       <c r="AS3" s="31"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="91"/>
       <c r="BC3" s="14"/>
       <c r="BD3" s="10"/>
       <c r="BE3" s="28"/>
       <c r="BF3" s="28"/>
       <c r="BG3" s="10"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
       <c r="BM3" s="14"/>
       <c r="BN3" s="9"/>
       <c r="BO3" s="26"/>
       <c r="BP3" s="26"/>
-      <c r="BR3" s="110"/>
-      <c r="BS3" s="110"/>
-      <c r="BT3" s="110"/>
-      <c r="BU3" s="110"/>
-      <c r="BV3" s="110"/>
-      <c r="BW3" s="110"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
       <c r="BY3" s="13"/>
       <c r="BZ3" s="10"/>
       <c r="CA3" s="10"/>
       <c r="CB3" s="10"/>
       <c r="CC3" s="10"/>
-      <c r="CD3" s="111"/>
-      <c r="CE3" s="111"/>
-      <c r="CF3" s="111"/>
-      <c r="CG3" s="111"/>
-      <c r="CH3" s="111"/>
-      <c r="CI3" s="111"/>
-      <c r="CJ3" s="111"/>
+      <c r="CD3" s="89"/>
+      <c r="CE3" s="89"/>
+      <c r="CF3" s="89"/>
+      <c r="CG3" s="89"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="89"/>
+      <c r="CJ3" s="89"/>
       <c r="CK3" s="13"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CS3" s="108"/>
-      <c r="CT3" s="108"/>
+      <c r="CP3" s="86"/>
+      <c r="CQ3" s="86"/>
+      <c r="CR3" s="86"/>
+      <c r="CS3" s="86"/>
+      <c r="CT3" s="86"/>
     </row>
     <row r="4" spans="1:105" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -13155,13 +13155,13 @@
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="14"/>
@@ -13169,23 +13169,23 @@
       <c r="N5" s="63"/>
       <c r="O5" s="63"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="114" t="s">
+      <c r="Q5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="116"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="94"/>
       <c r="V5" s="14"/>
       <c r="X5" s="64"/>
       <c r="Y5" s="64"/>
-      <c r="AA5" s="114" t="s">
+      <c r="AA5" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="116"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="94"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="24"/>
@@ -13227,11 +13227,11 @@
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="14"/>
@@ -13239,19 +13239,19 @@
       <c r="N6" s="63"/>
       <c r="O6" s="63"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="119"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="97"/>
       <c r="V6" s="14"/>
       <c r="X6" s="64"/>
       <c r="Y6" s="64"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="119"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="97"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="24"/>
@@ -13423,38 +13423,38 @@
     <row r="9" spans="1:105" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="92" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="94"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
@@ -13502,34 +13502,34 @@
     <row r="10" spans="1:105" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="97"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
@@ -13577,44 +13577,44 @@
     <row r="11" spans="1:105" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="98" t="s">
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101">
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="113">
         <v>94</v>
       </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="98" t="s">
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="101">
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="113">
         <v>50</v>
       </c>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="103"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="115"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
@@ -13879,66 +13879,66 @@
       <c r="CW14" s="30"/>
     </row>
     <row r="15" spans="1:105" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
     </row>
     <row r="16" spans="1:105" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
       <c r="CT16" s="30"/>
       <c r="CU16" s="30"/>
       <c r="CV16" s="30"/>
@@ -13949,34 +13949,34 @@
       <c r="DA16" s="30"/>
     </row>
     <row r="17" spans="3:105" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
       <c r="CT17" s="30"/>
       <c r="CU17" s="30"/>
       <c r="CV17" s="30"/>
@@ -18824,6 +18824,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C15:AD17"/>
+    <mergeCell ref="C9:N10"/>
+    <mergeCell ref="O9:AD10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="BR2:BW3"/>
     <mergeCell ref="CD2:CJ3"/>
     <mergeCell ref="CP2:CT3"/>
@@ -18836,14 +18844,6 @@
     <mergeCell ref="AL2:AP3"/>
     <mergeCell ref="AU2:BB3"/>
     <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="C15:AD17"/>
-    <mergeCell ref="C9:N10"/>
-    <mergeCell ref="O9:AD10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18855,7 +18855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C77B40-F8E2-4F08-A72F-13F02ACEB50D}">
   <dimension ref="A1:CW69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AV35" sqref="AV35"/>
     </sheetView>
@@ -18935,191 +18935,191 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="13"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="Q2" s="112" t="s">
+      <c r="Q2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
       <c r="V2" s="13"/>
       <c r="X2" s="67"/>
       <c r="Y2" s="23"/>
-      <c r="AA2" s="110" t="s">
+      <c r="AA2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="38"/>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="15"/>
-      <c r="AL2" s="112" t="s">
+      <c r="AL2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
       <c r="AQ2" s="13"/>
       <c r="AS2" s="66"/>
-      <c r="AU2" s="113" t="s">
+      <c r="AU2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="91"/>
       <c r="BC2" s="13"/>
       <c r="BE2" s="27"/>
       <c r="BF2" s="27"/>
-      <c r="BH2" s="108" t="s">
+      <c r="BH2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="108"/>
-      <c r="BL2" s="108"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
       <c r="BM2" s="13"/>
       <c r="BO2" s="25"/>
       <c r="BP2" s="25"/>
-      <c r="BR2" s="110" t="s">
+      <c r="BR2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="BS2" s="110"/>
-      <c r="BT2" s="110"/>
-      <c r="BU2" s="110"/>
-      <c r="BV2" s="110"/>
-      <c r="BW2" s="110"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
       <c r="BY2" s="13"/>
-      <c r="CD2" s="111" t="s">
+      <c r="CD2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="CE2" s="111"/>
-      <c r="CF2" s="111"/>
-      <c r="CG2" s="111"/>
-      <c r="CH2" s="111"/>
-      <c r="CI2" s="111"/>
-      <c r="CJ2" s="111"/>
+      <c r="CE2" s="89"/>
+      <c r="CF2" s="89"/>
+      <c r="CG2" s="89"/>
+      <c r="CH2" s="89"/>
+      <c r="CI2" s="89"/>
+      <c r="CJ2" s="89"/>
       <c r="CK2" s="13"/>
-      <c r="CP2" s="108" t="s">
+      <c r="CP2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="CQ2" s="108"/>
-      <c r="CR2" s="108"/>
-      <c r="CS2" s="108"/>
-      <c r="CT2" s="108"/>
+      <c r="CQ2" s="86"/>
+      <c r="CR2" s="86"/>
+      <c r="CS2" s="86"/>
+      <c r="CT2" s="86"/>
     </row>
     <row r="3" spans="1:101" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="14"/>
       <c r="M3" s="10"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
       <c r="V3" s="14"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="24"/>
       <c r="AI3" s="29"/>
       <c r="AJ3" s="29"/>
       <c r="AK3" s="24"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
       <c r="AQ3" s="14"/>
       <c r="AS3" s="31"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="91"/>
       <c r="BC3" s="14"/>
       <c r="BD3" s="10"/>
       <c r="BE3" s="28"/>
       <c r="BF3" s="28"/>
       <c r="BG3" s="10"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="108"/>
-      <c r="BK3" s="108"/>
-      <c r="BL3" s="108"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
       <c r="BM3" s="14"/>
       <c r="BN3" s="9"/>
       <c r="BO3" s="26"/>
       <c r="BP3" s="26"/>
-      <c r="BR3" s="110"/>
-      <c r="BS3" s="110"/>
-      <c r="BT3" s="110"/>
-      <c r="BU3" s="110"/>
-      <c r="BV3" s="110"/>
-      <c r="BW3" s="110"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
       <c r="BY3" s="13"/>
       <c r="BZ3" s="10"/>
       <c r="CA3" s="10"/>
       <c r="CB3" s="10"/>
       <c r="CC3" s="10"/>
-      <c r="CD3" s="111"/>
-      <c r="CE3" s="111"/>
-      <c r="CF3" s="111"/>
-      <c r="CG3" s="111"/>
-      <c r="CH3" s="111"/>
-      <c r="CI3" s="111"/>
-      <c r="CJ3" s="111"/>
+      <c r="CD3" s="89"/>
+      <c r="CE3" s="89"/>
+      <c r="CF3" s="89"/>
+      <c r="CG3" s="89"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="89"/>
+      <c r="CJ3" s="89"/>
       <c r="CK3" s="13"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
-      <c r="CP3" s="108"/>
-      <c r="CQ3" s="108"/>
-      <c r="CR3" s="108"/>
-      <c r="CS3" s="108"/>
-      <c r="CT3" s="108"/>
+      <c r="CP3" s="86"/>
+      <c r="CQ3" s="86"/>
+      <c r="CR3" s="86"/>
+      <c r="CS3" s="86"/>
+      <c r="CT3" s="86"/>
     </row>
     <row r="4" spans="1:101" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -19183,13 +19183,13 @@
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="14"/>
@@ -19197,23 +19197,23 @@
       <c r="N5" s="63"/>
       <c r="O5" s="63"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="114" t="s">
+      <c r="Q5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="116"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="94"/>
       <c r="V5" s="14"/>
       <c r="X5" s="64"/>
       <c r="Y5" s="64"/>
-      <c r="AA5" s="114" t="s">
+      <c r="AA5" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="116"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="94"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="13"/>
       <c r="AH5" s="24"/>
@@ -19255,11 +19255,11 @@
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="14"/>
@@ -19267,19 +19267,19 @@
       <c r="N6" s="63"/>
       <c r="O6" s="63"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="119"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="97"/>
       <c r="V6" s="14"/>
       <c r="X6" s="64"/>
       <c r="Y6" s="64"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="119"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="97"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="24"/>
@@ -19451,38 +19451,38 @@
     <row r="9" spans="1:101" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="92" t="s">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="94"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
@@ -19530,34 +19530,34 @@
     <row r="10" spans="1:101" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="97"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
@@ -19605,44 +19605,44 @@
     <row r="11" spans="1:101" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="98" t="s">
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101">
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="113">
         <v>39</v>
       </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="98" t="s">
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="101">
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="113">
         <v>29</v>
       </c>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="103"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="115"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
@@ -19907,96 +19907,96 @@
       <c r="CW14" s="30"/>
     </row>
     <row r="15" spans="1:101" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
     </row>
     <row r="16" spans="1:101" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
     </row>
     <row r="17" spans="3:41" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
     </row>
     <row r="19" spans="3:41" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AF19" s="7"/>
@@ -21197,161 +21197,171 @@
       <c r="AO48" s="71"/>
     </row>
     <row r="63" spans="3:30" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="107" t="s">
+      <c r="C63" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="107"/>
-      <c r="U63" s="107"/>
-      <c r="V63" s="107"/>
-      <c r="W63" s="107"/>
-      <c r="X63" s="107"/>
-      <c r="Y63" s="107"/>
-      <c r="Z63" s="107"/>
-      <c r="AA63" s="107"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="107"/>
-      <c r="AD63" s="107"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
+      <c r="K63" s="119"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="119"/>
+      <c r="S63" s="119"/>
+      <c r="T63" s="119"/>
+      <c r="U63" s="119"/>
+      <c r="V63" s="119"/>
+      <c r="W63" s="119"/>
+      <c r="X63" s="119"/>
+      <c r="Y63" s="119"/>
+      <c r="Z63" s="119"/>
+      <c r="AA63" s="119"/>
+      <c r="AB63" s="119"/>
+      <c r="AC63" s="119"/>
+      <c r="AD63" s="119"/>
     </row>
     <row r="64" spans="3:30" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="107"/>
-      <c r="O64" s="107"/>
-      <c r="P64" s="107"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="107"/>
-      <c r="S64" s="107"/>
-      <c r="T64" s="107"/>
-      <c r="U64" s="107"/>
-      <c r="V64" s="107"/>
-      <c r="W64" s="107"/>
-      <c r="X64" s="107"/>
-      <c r="Y64" s="107"/>
-      <c r="Z64" s="107"/>
-      <c r="AA64" s="107"/>
-      <c r="AB64" s="107"/>
-      <c r="AC64" s="107"/>
-      <c r="AD64" s="107"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="119"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="119"/>
+      <c r="O64" s="119"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="119"/>
+      <c r="S64" s="119"/>
+      <c r="T64" s="119"/>
+      <c r="U64" s="119"/>
+      <c r="V64" s="119"/>
+      <c r="W64" s="119"/>
+      <c r="X64" s="119"/>
+      <c r="Y64" s="119"/>
+      <c r="Z64" s="119"/>
+      <c r="AA64" s="119"/>
+      <c r="AB64" s="119"/>
+      <c r="AC64" s="119"/>
+      <c r="AD64" s="119"/>
     </row>
     <row r="65" spans="3:30" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="107"/>
-      <c r="U65" s="107"/>
-      <c r="V65" s="107"/>
-      <c r="W65" s="107"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="107"/>
-      <c r="Z65" s="107"/>
-      <c r="AA65" s="107"/>
-      <c r="AB65" s="107"/>
-      <c r="AC65" s="107"/>
-      <c r="AD65" s="107"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="119"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="119"/>
+      <c r="S65" s="119"/>
+      <c r="T65" s="119"/>
+      <c r="U65" s="119"/>
+      <c r="V65" s="119"/>
+      <c r="W65" s="119"/>
+      <c r="X65" s="119"/>
+      <c r="Y65" s="119"/>
+      <c r="Z65" s="119"/>
+      <c r="AA65" s="119"/>
+      <c r="AB65" s="119"/>
+      <c r="AC65" s="119"/>
+      <c r="AD65" s="119"/>
     </row>
     <row r="68" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="86" t="s">
+      <c r="C68" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="87"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="87"/>
-      <c r="M68" s="87"/>
-      <c r="N68" s="87"/>
-      <c r="O68" s="87"/>
-      <c r="P68" s="87"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="87"/>
-      <c r="S68" s="87"/>
-      <c r="T68" s="87"/>
-      <c r="U68" s="87"/>
-      <c r="V68" s="87"/>
-      <c r="W68" s="87"/>
-      <c r="X68" s="87"/>
-      <c r="Y68" s="87"/>
-      <c r="Z68" s="87"/>
-      <c r="AA68" s="87"/>
-      <c r="AB68" s="87"/>
-      <c r="AC68" s="87"/>
-      <c r="AD68" s="88"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="99"/>
+      <c r="R68" s="99"/>
+      <c r="S68" s="99"/>
+      <c r="T68" s="99"/>
+      <c r="U68" s="99"/>
+      <c r="V68" s="99"/>
+      <c r="W68" s="99"/>
+      <c r="X68" s="99"/>
+      <c r="Y68" s="99"/>
+      <c r="Z68" s="99"/>
+      <c r="AA68" s="99"/>
+      <c r="AB68" s="99"/>
+      <c r="AC68" s="99"/>
+      <c r="AD68" s="100"/>
     </row>
     <row r="69" spans="3:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="90"/>
-      <c r="X69" s="90"/>
-      <c r="Y69" s="90"/>
-      <c r="Z69" s="90"/>
-      <c r="AA69" s="90"/>
-      <c r="AB69" s="90"/>
-      <c r="AC69" s="90"/>
-      <c r="AD69" s="91"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="102"/>
+      <c r="V69" s="102"/>
+      <c r="W69" s="102"/>
+      <c r="X69" s="102"/>
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="102"/>
+      <c r="AA69" s="102"/>
+      <c r="AB69" s="102"/>
+      <c r="AC69" s="102"/>
+      <c r="AD69" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C15:AD17"/>
+    <mergeCell ref="C63:AD65"/>
+    <mergeCell ref="C68:AD69"/>
+    <mergeCell ref="C9:N10"/>
+    <mergeCell ref="O9:AD10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="BR2:BW3"/>
     <mergeCell ref="CD2:CJ3"/>
     <mergeCell ref="CP2:CT3"/>
@@ -21364,16 +21374,6 @@
     <mergeCell ref="AL2:AP3"/>
     <mergeCell ref="AU2:BB3"/>
     <mergeCell ref="BH2:BL3"/>
-    <mergeCell ref="C15:AD17"/>
-    <mergeCell ref="C63:AD65"/>
-    <mergeCell ref="C68:AD69"/>
-    <mergeCell ref="C9:N10"/>
-    <mergeCell ref="O9:AD10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
